--- a/Documents/Non-Official Documents/Material.xlsx
+++ b/Documents/Non-Official Documents/Material.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Extended Project\Classes\Level 3 Extended Project D2\elanzavalenciano17\Extended-project-v.2-master\Documents\Non-Official Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\Extended-project-v.2-master\Documents\Non-Official Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CF298-669F-4E4E-8D54-B98737A4C445}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maths" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>Type of material</t>
   </si>
@@ -101,12 +102,207 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/resources/gcse-maths-revision</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/circle-theorems-11</t>
+  </si>
+  <si>
+    <t>Info cards</t>
+  </si>
+  <si>
+    <t>Circle theorems</t>
+  </si>
+  <si>
+    <t>Angles</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/resources/circle_theroms_stuff</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/diagrams/maths_statistics_1_continued</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Statistics summary</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-notes/finding_the_mean_mode_median_and_range</t>
+  </si>
+  <si>
+    <t>Data Handling</t>
+  </si>
+  <si>
+    <t>Past Papers</t>
+  </si>
+  <si>
+    <t>https://www.physicsandmathstutor.com/past-papers/gcse-maths/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam Prep </t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-notes/gcse-english-language-paper-1-explorations-in</t>
+  </si>
+  <si>
+    <t>Creative writing</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/reading_non_fiction</t>
+  </si>
+  <si>
+    <t>Non Fiction texts</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/diagrams/language-devices-81</t>
+  </si>
+  <si>
+    <t>Language devices</t>
+  </si>
+  <si>
+    <t>Flash cards</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-tests/a_vocabulary_english_language?game_type=flashcards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocabulary </t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-notes/peed</t>
+  </si>
+  <si>
+    <t>Exam Prep</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-tests/english-poetry-terms?game_type=flashcards</t>
+  </si>
+  <si>
+    <t>Poetry Vocabulary</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/past-papers/search?level=gcse&amp;subject=english_language&amp;board=</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/past-papers/search?level=gcse&amp;subject=english_literature&amp;board=</t>
+  </si>
+  <si>
+    <t>Exam papers</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/aqa-love-and-relationships-poetry-quotes</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/resources?q=&amp;level_id%5B%5D=gcse&amp;subject_id%5B%5D=english_literature</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-notes/ocr_21st_century_b2</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Topic B1</t>
+  </si>
+  <si>
+    <t>Topic B2</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-notes/b3_revision_notes_2</t>
+  </si>
+  <si>
+    <t>Topic B3</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/b4_28</t>
+  </si>
+  <si>
+    <t>Topic B4</t>
+  </si>
+  <si>
+    <t>Topic C1 C2 C3</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/chemistry_c4_2</t>
+  </si>
+  <si>
+    <t>Topic C4</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/resources/aqa_additional_science_physics_revision</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Prep Questions</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/resources/gcse_additional_physics_p2_revision_booklet</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/p1_8</t>
+  </si>
+  <si>
+    <t>Topic P1</t>
+  </si>
+  <si>
+    <t>Topic P2</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-cards/p3_12</t>
+  </si>
+  <si>
+    <t>Topic P3</t>
+  </si>
+  <si>
+    <t>Flash Cards</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/revision-tests/p4_science?game_type=flashcards</t>
+  </si>
+  <si>
+    <t>Topic P4</t>
+  </si>
+  <si>
+    <t>Exam Papers</t>
+  </si>
+  <si>
+    <t>https://www.physicsandmathstutor.com/past-papers/gcse-science/</t>
+  </si>
+  <si>
+    <t>https://www.physicsandmathstutor.com/past-papers/gcse-english-language/</t>
+  </si>
+  <si>
+    <t>https://www.physicsandmathstutor.com/past-papers/gcse-english-literature/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,11 +332,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,40 +769,106 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -689,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,20 +964,228 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="64.140625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -723,11 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,21 +1206,237 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Non-Official Documents/Material.xlsx
+++ b/Documents/Non-Official Documents/Material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\Extended-project-v.2-master\Documents\Non-Official Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CF298-669F-4E4E-8D54-B98737A4C445}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A2169-262E-42D7-A63C-0FAB428B22B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maths" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Type of material</t>
   </si>
@@ -297,16 +297,27 @@
   </si>
   <si>
     <t>https://www.physicsandmathstutor.com/past-papers/gcse-english-literature/</t>
+  </si>
+  <si>
+    <t>https://getrevising.co.uk/resources/ocr_21st_century_science_a_c1_c2_c3_revision_notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,17 +340,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +673,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -673,7 +690,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -690,7 +707,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -707,7 +724,7 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -724,7 +741,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -741,7 +758,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -758,7 +775,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -775,7 +792,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -792,7 +809,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -809,7 +826,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -826,7 +843,7 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -843,7 +860,7 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -860,7 +877,7 @@
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -947,6 +964,21 @@
       <c r="E27" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{E8B0F2BE-718A-4628-BC48-C88E83F29164}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6DAABE38-3860-4CC2-AB84-E08605718D88}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{16DA3CDE-EB7B-490E-9D69-5D9D9B62E976}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{2BD8EDA6-816F-41CC-8FD9-9420E8C40629}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{68198E1E-D124-439D-AC20-7F258D5F0AF7}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{E266659F-049E-48FE-B052-430C7E833CD1}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{62AC9A16-28B4-4C2D-A910-6B14C8EB129A}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{BE271CF4-CEA3-4B56-95FC-496667E9D651}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{8C3F4568-3647-4125-95EE-C0B7FE210B34}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{F1880A3A-706C-4506-8236-A2D54C720E7D}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{2ABD520E-2331-4D19-B817-A4BFFE524CD7}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{259433CE-39CB-46E0-9A63-8F606D20DF16}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{2A62E881-1178-4815-A511-9C62EF1EEC18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -955,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1012,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -991,13 +1023,13 @@
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1008,13 +1040,13 @@
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1025,13 +1057,13 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1042,13 +1074,13 @@
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1059,13 +1091,13 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1076,13 +1108,13 @@
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1099,7 +1131,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1116,7 +1148,7 @@
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1127,13 +1159,13 @@
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1144,13 +1176,13 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1161,7 +1193,7 @@
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1178,7 +1210,7 @@
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1189,6 +1221,18 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{E7F2C821-7D5B-4B8B-9724-F7C4F2493352}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{21CD8D4B-DE2B-44D7-9ACD-FE0B58FD2122}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{214E3FA5-345E-4B2F-80F2-868F312CDC66}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{2ED9B92C-E19E-4606-96E6-5EC94F6D59D4}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{90B3CEC8-9E06-43E2-9147-9930D12A82BB}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{72091D98-8682-4AA4-B0BE-9DB77AAD7B36}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{61A5578B-29DC-40A6-9BC1-04AF35459C85}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{F24085FF-69C7-41AF-9406-85C7A9AB261B}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{6BF3284E-497F-4824-93FB-12392DBC3BC9}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{952D1E3A-F761-46F0-891E-F0EDC6AA8717}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1197,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1277,7 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1250,7 +1294,7 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1267,7 +1311,7 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1284,7 +1328,7 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1301,8 +1345,8 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>70</v>
@@ -1318,7 +1362,7 @@
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1335,7 +1379,7 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1352,7 +1396,7 @@
       <c r="B9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1369,7 +1413,7 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1386,7 +1430,7 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1403,7 +1447,7 @@
       <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1420,7 +1464,7 @@
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1439,6 +1483,20 @@
       <c r="E15" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{1F5F71FA-10DB-4820-B344-FFFC8A7A1DDF}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{97EAC295-6B60-43F2-89FE-C0007AEDD62E}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{65D481A1-5EA6-447C-BA82-3F67B21D95B2}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{C5483B13-D894-4E92-AAD2-912C9959C2DC}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{27884C0F-C18C-489C-8A13-11EA38AC146D}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3515B15E-9F6C-4B1E-8808-855F588BE903}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00A3BF1C-E8E3-48DA-9B6D-89D5941F984C}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{2A8D670D-AC1A-4B17-8BA7-A6D829CF0656}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{5275F339-511D-46AE-BF82-D19B42DFBAAA}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{550C0A40-B320-4122-AF22-369D0E5C8005}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{37F395EA-7206-44E9-9A0A-478AB8CD57A8}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{4526661C-E5D6-40B6-A3D9-1CC7EDA329A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Non-Official Documents/Material.xlsx
+++ b/Documents/Non-Official Documents/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\Extended-project-v.2-master\Documents\Non-Official Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A2169-262E-42D7-A63C-0FAB428B22B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88138D5A-BABF-4903-89C9-5055FB9FDB1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
   <si>
     <t>Type of material</t>
   </si>
@@ -300,6 +300,27 @@
   </si>
   <si>
     <t>https://getrevising.co.uk/resources/ocr_21st_century_science_a_c1_c2_c3_revision_notes</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>https://www.cgpbooks.co.uk/interactive_gcse_maths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>https://www.cgpbooks.co.uk/interactive_gcse_english</t>
+  </si>
+  <si>
+    <t>https://www.cgpbooks.co.uk/interactive_gcse_science</t>
+  </si>
+  <si>
+    <t>Quizzes</t>
+  </si>
+  <si>
+    <t>https://www.sporcle.com/games/tags/gcse</t>
   </si>
 </sst>
 </file>
@@ -344,12 +365,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,7 +658,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +693,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -690,7 +710,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -707,7 +727,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -724,7 +744,7 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -741,7 +761,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -758,7 +778,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -775,7 +795,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -792,7 +812,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -809,7 +829,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -826,7 +846,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -843,7 +863,7 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -860,7 +880,7 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -877,7 +897,7 @@
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -889,15 +909,33 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -985,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1050,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1023,13 +1061,13 @@
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1040,13 +1078,13 @@
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1057,13 +1095,13 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1074,13 +1112,13 @@
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1091,13 +1129,13 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1108,13 +1146,13 @@
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1131,7 +1169,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1148,7 +1186,7 @@
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1159,13 +1197,13 @@
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1176,13 +1214,13 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1193,7 +1231,7 @@
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1210,7 +1248,7 @@
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1218,6 +1256,34 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1308,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1343,7 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1294,7 +1360,7 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1311,7 +1377,7 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1328,7 +1394,7 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1345,7 +1411,7 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1362,7 +1428,7 @@
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1379,7 +1445,7 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1396,7 +1462,7 @@
       <c r="B9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1413,7 +1479,7 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1430,7 +1496,7 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1447,7 +1513,7 @@
       <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1464,7 +1530,7 @@
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1475,12 +1541,32 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documents/Non-Official Documents/Material.xlsx
+++ b/Documents/Non-Official Documents/Material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\Extended-project-v.2-master\Documents\Non-Official Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88138D5A-BABF-4903-89C9-5055FB9FDB1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E186D-9CE4-4D77-B178-EF4246B7C3FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maths" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1307,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
